--- a/data.xlsx
+++ b/data.xlsx
@@ -11,12 +11,228 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>SubMenu</t>
+  </si>
+  <si>
+    <t>Xodim</t>
+  </si>
+  <si>
+    <t>Tasdiqlovchi</t>
+  </si>
+  <si>
+    <t>Bajaruvchi</t>
+  </si>
+  <si>
+    <t>SAP Document</t>
+  </si>
+  <si>
+    <t>Yetkazib beruvchi</t>
+  </si>
+  <si>
+    <t>To'lov sanasi</t>
+  </si>
+  <si>
+    <t>Hisobot To'lov sanasi</t>
+  </si>
+  <si>
+    <t>Ticket raqami</t>
+  </si>
+  <si>
+    <t>Hisob(qayerdan)</t>
+  </si>
+  <si>
+    <t>Hisob(qayerga)</t>
+  </si>
+  <si>
+    <t>Valyuta</t>
+  </si>
+  <si>
+    <t>Valyuta kursi</t>
+  </si>
+  <si>
+    <t>Summa</t>
+  </si>
+  <si>
+    <t>Hisob Nuqtasi</t>
+  </si>
+  <si>
+    <t>Statya DDS</t>
+  </si>
+  <si>
+    <t>Izoh</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>Xorijiy xarid</t>
+  </si>
+  <si>
+    <t>Chetga pul chiqarish</t>
+  </si>
+  <si>
+    <t>Madaminov Muhammadali</t>
+  </si>
+  <si>
+    <t>Chiquvchi to'lov</t>
+  </si>
+  <si>
+    <t>20.11.2023</t>
+  </si>
+  <si>
+    <t>5011 - Korxona (USD)</t>
+  </si>
+  <si>
+    <t>5530 - Yo'ldagi pullar (Chetga chiqarilgan)</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>12 330 $</t>
+  </si>
+  <si>
+    <t>1 000 $</t>
+  </si>
+  <si>
+    <t>Samarqand</t>
+  </si>
+  <si>
+    <t>Xorijiy yetkazib beruvchilarga to'lov</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>To'lov/Xarajat</t>
+  </si>
+  <si>
+    <t>Naqd/Karta hisobidan to'lov/xarajat</t>
+  </si>
+  <si>
+    <t>Qo'chqorov Behzod</t>
+  </si>
+  <si>
+    <t>Gulyamov Bobur</t>
+  </si>
+  <si>
+    <t>Usmonov Behzod</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>15.05.2024</t>
+  </si>
+  <si>
+    <t>20.04.2024</t>
+  </si>
+  <si>
+    <t>9454 - Operatsion xarajatlar</t>
+  </si>
+  <si>
+    <t>12 690 $</t>
+  </si>
+  <si>
+    <t>10 $</t>
+  </si>
+  <si>
+    <t>Operatsion xarajatlar</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>5036 - SM kassasi (USD)</t>
+  </si>
+  <si>
+    <t>9232 - Yo'lkira xarajati (Samarqand)</t>
+  </si>
+  <si>
+    <t>Andijon</t>
+  </si>
+  <si>
+    <t>Agentlar yo'lkirasi</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>Xorijiy xarid to'lovi</t>
+  </si>
+  <si>
+    <t>Fudong Handan Zavod</t>
+  </si>
+  <si>
+    <t>xar-1915</t>
+  </si>
+  <si>
+    <t>4340 - Avans Wayne Sun</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>7,2 CN¥</t>
+  </si>
+  <si>
+    <t>1 000 CN¥</t>
+  </si>
+  <si>
+    <t>❌</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>5031 - D64 kassasi (USD)</t>
+  </si>
+  <si>
+    <t>Xitoy</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>5041 - Q01 kassasi (USD)</t>
+  </si>
+  <si>
+    <t>Qo'qon</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>5051 - Misafir kassasi (USD)</t>
+  </si>
+  <si>
+    <t>-Yetkazib beruvchi(Kimdan sotib olinayotgani):
+-Sotib olinayotgan tovar/xizmat yoki harajat nom:
+-To'lovchi(Pulni kim berayotgani):
+-To'lov/Harajat jami summasi(Kelishilgan jami summa):
+-To'lov summasi(Ayni damda to'lanayotgan summa):
+ADasdsadasfadsgfgaefewfawefewfew</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -24,13 +240,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00AB66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -42,14 +271,480 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf/>
+    <xf fontId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="100" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="100" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="100" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="100" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" ht="100" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" ht="100" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" ht="100" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -79,6 +79,12 @@
     <t>Madaminov Muhammadali</t>
   </si>
   <si>
+    <t>Madaminov Muhammadali ✅</t>
+  </si>
+  <si>
+    <t>Madaminov Muhammadali ❌</t>
+  </si>
+  <si>
     <t>Kiruvchi to'lov</t>
   </si>
   <si>
@@ -92,37 +98,6 @@
   </si>
   <si>
     <t>salom</t>
-  </si>
-  <si>
-    <t>2801</t>
-  </si>
-  <si>
-    <t>Boshqa</t>
-  </si>
-  <si>
-    <t>Chegirma</t>
-  </si>
-  <si>
-    <t>Sana:
-Kimga: Mijoz ismi
-Tovar 1: 
-Sotish narxi: 1.6$
-Chegirma bilan narxi: 1,56$
----------------------------------------
-Tovar 2: 
-Sotish narxi: 1.6$
-Chegirma bilan narxi: 1,56$
----------------------------------------
-Tovar 3: 
-Sotish narxi: 1.6$
-Chegirma bilan narxi: 1,56$
----------------------------------------
-Umumiy buyurtma summasi: 6025$
-Umumiy chegirma summasi: 25$
----------------------------------------
-Izoh: Bo'lgan ish sababini to'liq bayon qilib yozing!
-Tasdiqlovchi: 
-#chegirma</t>
   </si>
 </sst>
 </file>
@@ -145,24 +120,12 @@
       <b/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00AB66"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,18 +137,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf/>
     <xf fontId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -250,60 +207,6 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2" ht="100" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -318,171 +221,83 @@
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" ht="100" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,18 +11,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>SubMenu</t>
+  </si>
+  <si>
+    <t>Xodim</t>
+  </si>
+  <si>
+    <t>Tasdiqlovchi</t>
+  </si>
+  <si>
+    <t>Bajaruvchi</t>
+  </si>
+  <si>
+    <t>SAP Document</t>
+  </si>
+  <si>
+    <t>Yetkazib beruvchi</t>
+  </si>
+  <si>
+    <t>To'lov sanasi</t>
+  </si>
+  <si>
+    <t>Hisobot To'lov sanasi</t>
+  </si>
+  <si>
+    <t>Ticket raqami</t>
+  </si>
+  <si>
+    <t>Hisob(qayerdan)</t>
+  </si>
+  <si>
+    <t>Hisob(qayerga)</t>
+  </si>
+  <si>
+    <t>Valyuta</t>
+  </si>
+  <si>
+    <t>Valyuta kursi</t>
+  </si>
+  <si>
+    <t>Summa</t>
+  </si>
+  <si>
+    <t>Hisob Nuqtasi</t>
+  </si>
+  <si>
+    <t>Statya DDS</t>
+  </si>
+  <si>
+    <t>Izoh</t>
+  </si>
+  <si>
+    <t>11693</t>
+  </si>
+  <si>
+    <t>Xorijiy xarid</t>
+  </si>
+  <si>
+    <t>Chetga pul chiqarish</t>
+  </si>
+  <si>
+    <t>Madaminov Muhammadali</t>
+  </si>
+  <si>
+    <t>Madaminov Muhammadali ✅</t>
+  </si>
+  <si>
+    <t>Chiquvchi to'lov</t>
+  </si>
+  <si>
+    <t>31.01.2024</t>
+  </si>
+  <si>
+    <t>5071 - Ofis kassa (USD)</t>
+  </si>
+  <si>
+    <t>5530 - Yo'ldagi pullar (Chetga chiqarilgan)</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>12 750 $</t>
+  </si>
+  <si>
+    <t>100 $</t>
+  </si>
+  <si>
+    <t>KORXONA</t>
+  </si>
+  <si>
+    <t>Xorijiy yetkazib beruvchilarga to'lov</t>
+  </si>
+  <si>
+    <t>-Yetkazib beruvchi(Kimdan sotib olinayotgani):
+-Sotib olinayotgan tovar/xizmat yoki harajat nom:
+-To'lovchi(Pulni kim berayotgani):
+-To'lov/Harajat jami summasi(Kelishilgan jami summa):
+-To'lov summasi(Ayni damda to'lanayotgan summa):</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,14 +156,135 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf/>
+    <xf fontId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="100" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>